--- a/UK_CoP_TitleLists/AMS_Open_scifreeimport.xlsx
+++ b/UK_CoP_TitleLists/AMS_Open_scifreeimport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/lc2792_bath_ac_uk/Documents/Documents/TA journal lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leann\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{9F6249DA-1507-4BE0-8A53-B40210920A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3818E1-2B9B-42CC-ACA1-E0A0F22151C3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B38F44-3AC7-43A8-8A04-17F842FCEB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal List" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>Journal Title</t>
   </si>
@@ -190,12 +190,6 @@
     <t>Earth Interactions</t>
   </si>
   <si>
-    <t>Journal of Applied Meteorology (1962)</t>
-  </si>
-  <si>
-    <t>Journal of Applied Meteorology (1988)</t>
-  </si>
-  <si>
     <t>Journal of Applied Meteorology and Climatology</t>
   </si>
   <si>
@@ -205,24 +199,15 @@
     <t>Journal of Climate</t>
   </si>
   <si>
-    <t>Journal of Climate and Applied Meteorology</t>
-  </si>
-  <si>
     <t>Journal of Hydrometeorology</t>
   </si>
   <si>
-    <t>Journal of Meteorology</t>
-  </si>
-  <si>
     <t>Journal of Physical Oceanography</t>
   </si>
   <si>
     <t>Journal of the Atmospheric Sciences</t>
   </si>
   <si>
-    <t>Meteorological Monographs</t>
-  </si>
-  <si>
     <t>Monthly Weather Review</t>
   </si>
   <si>
@@ -238,12 +223,6 @@
     <t>1087-3562</t>
   </si>
   <si>
-    <t>2163-534X</t>
-  </si>
-  <si>
-    <t>1520-0450</t>
-  </si>
-  <si>
     <t>1558-8432</t>
   </si>
   <si>
@@ -253,9 +232,6 @@
     <t>1520-0442</t>
   </si>
   <si>
-    <t>2163-5366</t>
-  </si>
-  <si>
     <t>1525-7541</t>
   </si>
   <si>
@@ -277,12 +253,6 @@
     <t>0003-0007</t>
   </si>
   <si>
-    <t>0021-8952</t>
-  </si>
-  <si>
-    <t>0894-8763</t>
-  </si>
-  <si>
     <t>1558-8424</t>
   </si>
   <si>
@@ -292,24 +262,15 @@
     <t>0894-8755</t>
   </si>
   <si>
-    <t>0733-3021</t>
-  </si>
-  <si>
     <t>1525-755X</t>
   </si>
   <si>
-    <t>0095-9634</t>
-  </si>
-  <si>
     <t>0022-3670</t>
   </si>
   <si>
     <t>0022-4928</t>
   </si>
   <si>
-    <t>0065-9401</t>
-  </si>
-  <si>
     <t>0027-0644</t>
   </si>
   <si>
@@ -341,9 +302,6 @@
   </si>
   <si>
     <t>https://journals.ametsoc.org/view/journals/phoc/phoc-overview.xml</t>
-  </si>
-  <si>
-    <t>https://journals.ametsoc.org/view/journals/amsm/amsm-overview.xml</t>
   </si>
   <si>
     <t>https://journals.ametsoc.org/view/journals/mwre/mwre-overview.xml</t>
@@ -452,7 +410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -571,111 +529,101 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -1076,6 +1024,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1717,50 +1675,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E20557D-7D01-4DDD-A3E5-4BE8969774E1}" name="Table1" displayName="Table1" ref="A1:H20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H20" xr:uid="{4E20557D-7D01-4DDD-A3E5-4BE8969774E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E02A6DD7-8011-4929-ADF1-DBA00025675B}" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H13" xr:uid="{E02A6DD7-8011-4929-ADF1-DBA00025675B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{60C9D913-7610-4E89-96C3-79D540E13C81}" name="Journal Title" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{157A6765-6BEB-45C8-B059-14466701E200}" name="Imprint" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C2D0AE15-8EB6-42FA-9756-6359A70C39F2}" name="Print ISSN" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C1A14781-2EC2-4655-8B99-34C639B681F7}" name="Electronic ISSN" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{6A1CDB50-05D6-4137-BED6-66AEA762C1D8}" name="Journal URL" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{142F869A-41EF-4110-B212-DCDFE3A91B4D}" name="Publishing Model" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{883DC121-F62A-4717-ABC9-50C24089DAAE}" name="License Options" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{79ADE6AD-15D5-4E9E-ADB0-716C42F18B23}" name="Subject Areas" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DBA992D4-D86E-4546-AFD2-ED1BEE93568C}" name="Journal Title" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0AA5D97A-1832-4170-A20E-1DA13EAEC528}" name="Imprint" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DF07595A-E15F-4BCB-ABF3-F50DE5985308}" name="Print ISSN" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A2034BD9-5E9C-4913-88DA-D2C970EB0564}" name="Electronic ISSN" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1DAF31F6-D73E-4BE8-9D79-8B76338C848A}" name="Journal URL" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{C553D14A-6EBC-44EF-AE3E-1158720CA77C}" name="Publishing Model" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B3DF6BF1-6CA6-4835-8DE5-B7CFC2356BA6}" name="License Options" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{D5CBA4BF-BBF1-4A06-A4F8-75D65CBA32F6}" name="Subject Areas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50DE42A8-741C-4C2A-82B7-4C9C79D7B512}" name="Table14" displayName="Table14" ref="A4:J23" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50DE42A8-741C-4C2A-82B7-4C9C79D7B512}" name="Table14" displayName="Table14" ref="A4:J23" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A4:J23" xr:uid="{50DE42A8-741C-4C2A-82B7-4C9C79D7B512}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1B9A1423-FE7E-41D7-B053-6BF091F459D2}" name="Journal Title" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{B625EB42-AF86-4F71-BC2F-65D99997CD50}" name="Imprint" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{559DDF72-C949-47E4-8DA4-297063A6725C}" name="Print ISSN" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{2C5C0518-FAE9-4E34-9C5C-031EDE4262BA}" name="Electronic ISSN" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{D5474278-5905-4A79-9DFE-DE4AB9980E12}" name="Journal URL" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{3D861C40-F9D7-4168-ACD1-389CE9995730}" name="Publishing Model" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{156C7878-43A4-40BA-84D1-0BD24E590EEE}" name="License Options" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{4C684C0B-6FA6-4E1F-BC47-B228FA209770}" name="Subject Areas" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{96CDE76D-4B76-48A4-98FB-70E2CCC4CFC8}" name="Change Type (See Terms)" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{43B192BA-2299-4882-A245-9C663CF7CF9B}" name="Change Note" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{1B9A1423-FE7E-41D7-B053-6BF091F459D2}" name="Journal Title" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{B625EB42-AF86-4F71-BC2F-65D99997CD50}" name="Imprint" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{559DDF72-C949-47E4-8DA4-297063A6725C}" name="Print ISSN" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{2C5C0518-FAE9-4E34-9C5C-031EDE4262BA}" name="Electronic ISSN" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{D5474278-5905-4A79-9DFE-DE4AB9980E12}" name="Journal URL" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{3D861C40-F9D7-4168-ACD1-389CE9995730}" name="Publishing Model" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{156C7878-43A4-40BA-84D1-0BD24E590EEE}" name="License Options" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{4C684C0B-6FA6-4E1F-BC47-B228FA209770}" name="Subject Areas" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{96CDE76D-4B76-48A4-98FB-70E2CCC4CFC8}" name="Change Type (See Terms)" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{43B192BA-2299-4882-A245-9C663CF7CF9B}" name="Change Note" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98A0D124-AED4-4DBE-8354-EE3315983F60}" name="Table25" displayName="Table25" ref="A1:B11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98A0D124-AED4-4DBE-8354-EE3315983F60}" name="Table25" displayName="Table25" ref="A1:B11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A1:B11" xr:uid="{98A0D124-AED4-4DBE-8354-EE3315983F60}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E088FFDE-8F3A-4B84-9B24-F82FF70FAEA5}" name="Term" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{3BB7484B-180C-438A-8248-E8FEA43CCABB}" name="Description" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{E088FFDE-8F3A-4B84-9B24-F82FF70FAEA5}" name="Term" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{3BB7484B-180C-438A-8248-E8FEA43CCABB}" name="Description" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2086,7 +2044,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2132,442 +2090,385 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="K7" s="16"/>
+      <c r="H7" s="14"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12"/>
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
       <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="15"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="15"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E13">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{4A0AF890-9CC6-4F77-BF78-4B3EF00B59D8}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{15CC0C3B-B93F-4EC6-83E3-E87C4DD9A77D}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{8BBB47C9-4994-4A81-A7E7-BCB138D55437}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2596,310 +2497,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
